--- a/Inscritos.xlsx
+++ b/Inscritos.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INSCRITOS" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="ORDEN INSCRITOS" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="CONFIGURACIÓN" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="PARA ENTREGAR A SECRETARÍA" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="PARA_CSV" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">INSCRITOS!$A$1:$W$21</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -169,14 +170,24 @@
   <si>
     <t xml:space="preserve">Funcionario en prácticas</t>
   </si>
+  <si>
+    <t xml:space="preserve">firstname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lastname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -333,7 +344,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -403,6 +414,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -518,7 +533,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="H2:H40 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1407,8 +1422,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="H2:H40 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2983,7 +2998,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="H2:H40 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3073,8 +3088,8 @@
   </sheetPr>
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="1" sqref="H2:H40 J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6816,6 +6831,1710 @@
       </c>
       <c r="W40" s="0" t="n">
         <f aca="false">IF('ORDEN INSCRITOS'!$E$40&lt;&gt;"BAJA",INSCRITOS!W40,"----")</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="0" t="str">
+        <f aca="false">"attribute_3"</f>
+        <v>attribute_3</v>
+      </c>
+      <c r="D1" s="0" t="str">
+        <f aca="false">"attribute_4"</f>
+        <v>attribute_4</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="0" t="str">
+        <f aca="false">"attribute_7"</f>
+        <v>attribute_7</v>
+      </c>
+      <c r="G1" s="0" t="str">
+        <f aca="false">"attribute_6"</f>
+        <v>attribute_6</v>
+      </c>
+      <c r="H1" s="0" t="str">
+        <f aca="false">"attribute_5"</f>
+        <v>attribute_5</v>
+      </c>
+      <c r="I1" s="0" t="str">
+        <f aca="false">"attribute_1"</f>
+        <v>attribute_1</v>
+      </c>
+      <c r="J1" s="0" t="str">
+        <f aca="false">"attribute_2"</f>
+        <v>attribute_2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E2</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E3</f>
+        <v>0</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E4</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E5</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D5</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D6</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E7</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D7</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E8</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D8</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C8</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F8</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E9</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D9</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E10</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D10</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F10</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E11</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C11</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E12</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D12</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E13</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F13</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E14</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D14</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E15</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D15</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E16</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D16</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U16</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E17</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D17</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E18</f>
+        <v>0</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D18</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J18</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E19</f>
+        <v>0</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D19</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C19</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E20</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D20</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C20</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U20</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F20</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E21</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D21</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C21</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E22</f>
+        <v>0</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E23</f>
+        <v>0</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D23</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N23</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J23</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E24</f>
+        <v>0</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D24</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F24</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J24</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E25</f>
+        <v>0</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D25</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C25</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U25</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F25</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J25</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E26</f>
+        <v>0</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D26</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C26</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H26</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J26</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E27</f>
+        <v>0</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D27</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C27</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U27</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E28</f>
+        <v>0</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D28</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C28</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U28</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F28</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N28</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E29</f>
+        <v>0</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D29</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C29</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U29</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F29</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N29</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H29</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E30</f>
+        <v>0</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D30</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C30</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U30</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F30</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H30</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E31</f>
+        <v>0</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D31</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C31</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U31</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F31</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N31</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E32</f>
+        <v>0</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D32</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C32</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U32</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F32</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N32</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E33</f>
+        <v>0</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D33</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C33</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U33</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F33</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N33</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H33</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J33</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E34</f>
+        <v>0</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D34</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C34</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U34</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F34</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N34</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H34</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J34</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E35</f>
+        <v>0</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D35</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C35</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U35</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F35</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N35</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H35</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J35</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E36</f>
+        <v>0</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D36</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C36</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U36</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F36</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N36</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H36</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J36</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E37</f>
+        <v>0</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D37</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C37</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U37</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F37</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N37</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H37</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J37</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E38</f>
+        <v>0</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D38</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C38</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U38</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F38</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N38</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H38</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J38</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E39</f>
+        <v>0</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D39</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C39</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U39</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F39</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N39</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H39</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J39</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!E40</f>
+        <v>0</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!D40</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!C40</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!U40</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!F40</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!N40</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!H40</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <f aca="false">'PARA ENTREGAR A SECRETARÍA'!J40</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="18" t="n">
+        <f aca="false">CONFIGURACIÓN!$E$2</f>
         <v>0</v>
       </c>
     </row>
